--- a/Calculator.xlsx
+++ b/Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yochai.glauber\Documents\Arduino\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E0F4863-B3D7-4456-886D-C0FB91BA81D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA48BB7C-6D72-4099-A389-EFD3B9CC72C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24BDADED-487C-416F-B8A8-1FAA2BF5EDC1}"/>
   </bookViews>
@@ -85,6 +85,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,56 +238,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,15 +315,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>123826</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129566</xdr:rowOff>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>110516</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -338,7 +346,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181351" y="0"/>
+          <a:off x="3409951" y="171450"/>
           <a:ext cx="2571750" cy="2253641"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -651,270 +659,274 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="4" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>6.3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>3.4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="9">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12">
         <f>(D7 * D2) / (D6 + D7)</f>
-        <v>3.5538461538461541</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+        <v>3.3846153846153841</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <v>0.7</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6">
+      <c r="C4" s="11"/>
+      <c r="D4" s="10">
         <v>0.7</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="12">
         <f>Vout * Aout</f>
         <v>2.38</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12">
         <f>D3 * D4</f>
-        <v>2.4876923076923076</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+        <v>2.3692307692307688</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <f>Vout / Aout</f>
         <v>4.8571428571428577</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6">
+      <c r="C6" s="11"/>
+      <c r="D6" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <f>_R1 / (Vin / Vout - 1)</f>
         <v>5.694581280788177</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10">
         <v>6.6</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+    </row>
     <row r="14" spans="1:10" ht="32.25" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="17"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="10">
         <v>10</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="10">
         <v>20</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="12">
         <f>(B15 * B16) / (B15 + B16)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -923,7 +935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XwDWb3vNhi4ds/p/f1s0rFSFXIOcCE6rsmWEf8Q/1XualpDXeKZXilHa4HQyr69qRaAjPdZBn6ZxEjJ4wxF+6Q==" saltValue="8v0kSXfbhgIECdv2cWbdXg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7NgB6/4bkcjUAl7yLKj+fSZZ8X1gmwQLZHxfc9TBO6YwchiyxCtD10RIcJ+0UQYip8ig0YJoYtN04p7kvrTc4Q==" saltValue="jVjnFSLmO1+Yrc1DS2rDLA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A14:D14"/>

--- a/Calculator.xlsx
+++ b/Calculator.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yochai.glauber\Documents\Arduino\Books\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yla\Documents\Arduino\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA48BB7C-6D72-4099-A389-EFD3B9CC72C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EAD58A-A8E7-4B8F-8B14-26AFEC4A2643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Yl0oTM2a2W/OrXgVO8/LDWZMbhIx3OpD8e4bwChGorW0uOjuWcKNCSREQh1bNKT1m1cxSa1BItDz5xIBYk8XUA==" workbookSaltValue="3/csJdmFQryqBMST5x4IrQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24BDADED-487C-416F-B8A8-1FAA2BF5EDC1}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="13455" xr2:uid="{24BDADED-487C-416F-B8A8-1FAA2BF5EDC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_R1">Sheet1!$B$6</definedName>
-    <definedName name="_R2">Sheet1!$B$7</definedName>
-    <definedName name="Aout">Sheet1!$B$4</definedName>
-    <definedName name="Power">Sheet1!$B$5</definedName>
-    <definedName name="Vin">Sheet1!$B$2</definedName>
-    <definedName name="Vout">Sheet1!$B$3</definedName>
+    <definedName name="_R1">Sheet1!$C$9</definedName>
+    <definedName name="_R2">Sheet1!$C$10</definedName>
+    <definedName name="Aout">Sheet1!$C$5</definedName>
+    <definedName name="Power">Sheet1!$C$7</definedName>
+    <definedName name="Rout">Sheet1!$C$6</definedName>
+    <definedName name="Rsum">Sheet1!$C$11</definedName>
+    <definedName name="Rtotal">Sheet1!$C$12</definedName>
+    <definedName name="Vin">Sheet1!$C$3</definedName>
+    <definedName name="Vout">Sheet1!$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,8 +45,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Vin</t>
   </si>
@@ -57,9 +83,6 @@
   </si>
   <si>
     <t>R2</t>
-  </si>
-  <si>
-    <t>Out Power</t>
   </si>
   <si>
     <t>R</t>
@@ -79,6 +102,21 @@
   </si>
   <si>
     <t>R = (R1 * R2) / (R1 + R2)</t>
+  </si>
+  <si>
+    <t>Wout</t>
+  </si>
+  <si>
+    <t>Rout</t>
+  </si>
+  <si>
+    <t>Rtotal</t>
+  </si>
+  <si>
+    <t>Ain</t>
+  </si>
+  <si>
+    <t>Rsum</t>
   </si>
 </sst>
 </file>
@@ -88,11 +126,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -100,7 +138,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -109,7 +147,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -117,7 +155,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -125,7 +163,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -133,7 +171,23 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -238,61 +292,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -314,23 +384,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>110516</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E478614-C57E-4F83-BE05-F5159C0DCB09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5496C3FB-F36C-C250-7F3E-17C72B931CEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -346,8 +416,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3409951" y="171450"/>
-          <a:ext cx="2571750" cy="2253641"/>
+          <a:off x="3933824" y="54893"/>
+          <a:ext cx="3295651" cy="3473960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB7A7A1-4BB8-539A-0794-D6350EE58838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="4029075"/>
+          <a:ext cx="2286000" cy="1453081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -656,294 +770,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C9FAF1-8781-42F1-82A5-F9234CE1AD58}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <f>Vout / Aout</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <f>Vout * Aout</f>
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <f>_R1 / (Vin / Vout - 1)</f>
+        <v>10</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" cm="1">
+        <f t="array" ref="C11">_R2 * Rout / (_R2 + Rout)</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C9 + C11</f>
+        <v>54</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" cm="1">
+        <f t="array" ref="C13">Vin / Rtotal</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="2:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10">
-        <v>6.3</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10">
-        <v>3.4</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12">
-        <f>(D7 * D2) / (D6 + D7)</f>
-        <v>3.3846153846153841</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12">
-        <f>Vout * Aout</f>
-        <v>2.38</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12">
-        <f>D3 * D4</f>
-        <v>2.3692307692307688</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12">
-        <f>Vout / Aout</f>
-        <v>4.8571428571428577</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12">
-        <f>_R1 / (Vin / Vout - 1)</f>
-        <v>5.694581280788177</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10">
-        <v>6.6</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="C24" s="3">
+        <f>(C22 * C23) / (C22 + C23)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" ht="32.25" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="7" t="s">
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="23"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="10">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10">
-        <v>20</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="12">
-        <f>(B15 * B16) / (B15 + B16)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7NgB6/4bkcjUAl7yLKj+fSZZ8X1gmwQLZHxfc9TBO6YwchiyxCtD10RIcJ+0UQYip8ig0YJoYtN04p7kvrTc4Q==" saltValue="jVjnFSLmO1+Yrc1DS2rDLA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Jp6WL9VnSFMy5GoQK8QZUgNYZuCfhxxYxDFtAEbe9N3szAWjfS4RyaRb2ksgDzaj0d2+AKjGmpg/nnS9EzdPrg==" saltValue="prnEdKDiRvIu51CM5Mb2ig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A9:D12"/>
-    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B16:E19"/>
+    <mergeCell ref="B26:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C7" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>